--- a/csv/main-files/Hadapsar.xlsx
+++ b/csv/main-files/Hadapsar.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="121">
   <si>
     <t>Prabhag 42 A : Mrs. Vijaya Kapre</t>
   </si>
@@ -53,6 +53,9 @@
     <t>B</t>
   </si>
   <si>
+    <t>55/66</t>
+  </si>
+  <si>
     <t>Drainage Work</t>
   </si>
   <si>
@@ -62,7 +65,7 @@
     <t>Paver Blocks</t>
   </si>
   <si>
-    <t>T</t>
+    <t>P</t>
   </si>
   <si>
     <t xml:space="preserve">Fencing </t>
@@ -86,13 +89,16 @@
     <t xml:space="preserve">Drainage Cleaning </t>
   </si>
   <si>
-    <t>DC</t>
+    <t>M</t>
+  </si>
+  <si>
+    <t>65/77</t>
   </si>
   <si>
     <t>Direction/Information Signboards</t>
   </si>
   <si>
-    <t>SB</t>
+    <t>N</t>
   </si>
   <si>
     <t>Building Toilets</t>
@@ -107,13 +113,19 @@
     <t>2014 - 2015</t>
   </si>
   <si>
+    <t>102/116</t>
+  </si>
+  <si>
     <t>2015 - 2016</t>
   </si>
   <si>
     <t>Road Works</t>
   </si>
   <si>
-    <t>RW</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>101/127</t>
   </si>
   <si>
     <t>Electrification, new street lights</t>
@@ -140,34 +152,19 @@
     <t>Installation of electric board</t>
   </si>
   <si>
-    <t xml:space="preserve"> B</t>
+    <t>32/66</t>
   </si>
   <si>
     <t>Paving block</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Fencing</t>
   </si>
   <si>
-    <t>Water supply</t>
+    <t>39/77</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Led fitting</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>New street lights</t>
-  </si>
-  <si>
-    <t>Drainage cleaning</t>
+    <t>50/116</t>
   </si>
   <si>
     <t>Samaj Mandir</t>
@@ -176,10 +173,16 @@
     <t>SM</t>
   </si>
   <si>
+    <t>50/127</t>
+  </si>
+  <si>
     <t>Prabhag 43A : Mr. Chetan Tupe</t>
   </si>
   <si>
     <t>Street lights</t>
+  </si>
+  <si>
+    <t>60/66</t>
   </si>
   <si>
     <t>Toilet renovation</t>
@@ -188,16 +191,16 @@
     <t>Health centre</t>
   </si>
   <si>
-    <t>HC</t>
+    <t>H</t>
   </si>
   <si>
     <t>PMC school repair</t>
   </si>
   <si>
-    <t>SR</t>
+    <t>Direction board</t>
   </si>
   <si>
-    <t>Direction board</t>
+    <t>51/77</t>
   </si>
   <si>
     <t>Drainage line</t>
@@ -206,16 +209,25 @@
     <t>Laying of tiles</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>Installation of street lights</t>
   </si>
   <si>
     <t>Toys for children</t>
   </si>
   <si>
-    <t>TOY</t>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>70/116</t>
   </si>
   <si>
     <t>Laying of Drainage line and Chamber</t>
+  </si>
+  <si>
+    <t>74/127</t>
   </si>
   <si>
     <t>New street lights LED Lamps</t>
@@ -230,22 +242,25 @@
     <t>Prabhag 43B : Mrs. Ranjana Pawar</t>
   </si>
   <si>
+    <t>53/66</t>
+  </si>
+  <si>
     <t>New Street light</t>
+  </si>
+  <si>
+    <t>60/77</t>
   </si>
   <si>
     <t>Garbage wheel barrow</t>
   </si>
   <si>
-    <t>WB</t>
-  </si>
-  <si>
-    <t>Street Light</t>
-  </si>
-  <si>
-    <t>Channeling Fencing</t>
+    <t>97/116</t>
   </si>
   <si>
     <t>Replacement of Chamber covers on Road</t>
+  </si>
+  <si>
+    <t>119/127</t>
   </si>
   <si>
     <t>Underground Electric cable</t>
@@ -255,6 +270,9 @@
   </si>
   <si>
     <t>Prabhag 44A :  Vaishali Bankar</t>
+  </si>
+  <si>
+    <t>63/66</t>
   </si>
   <si>
     <t>Direction Boards</t>
@@ -269,16 +287,25 @@
     <t>Electric Related</t>
   </si>
   <si>
+    <t>76/77</t>
+  </si>
+  <si>
+    <t>108/116</t>
+  </si>
+  <si>
     <t>Installation of Blinking Lights and Pole decoration,new street lights</t>
+  </si>
+  <si>
+    <t>118/127</t>
   </si>
   <si>
     <t>Cleaning(Radaroda Work)</t>
   </si>
   <si>
-    <t>M</t>
+    <t>Prabhag 44B :  Vijay Deshmukh</t>
   </si>
   <si>
-    <t>Prabhag 44B :  Vijay Deshmukh</t>
+    <t>45/66</t>
   </si>
   <si>
     <t>Bench</t>
@@ -290,10 +317,25 @@
     <t>Safety Net</t>
   </si>
   <si>
+    <t>64/77</t>
+  </si>
+  <si>
+    <t>100/116</t>
+  </si>
+  <si>
+    <t>60/127</t>
+  </si>
+  <si>
     <t>Prabhag 45A : Nana Bhangire</t>
   </si>
   <si>
     <t>Development work in graveyard</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>21/66</t>
   </si>
   <si>
     <t>Laying Underground Cable</t>
@@ -305,7 +347,16 @@
     <t>Electric Poles</t>
   </si>
   <si>
+    <t>34/77</t>
+  </si>
+  <si>
+    <t>39/116</t>
+  </si>
+  <si>
     <t>Drainage Cleaning and Maintenance</t>
+  </si>
+  <si>
+    <t>121/127</t>
   </si>
   <si>
     <t>Prabhag 45B : Vijaya Wadkar</t>
@@ -314,7 +365,16 @@
     <t>Providing Stones (Murum)</t>
   </si>
   <si>
+    <t>DW</t>
+  </si>
+  <si>
     <t>Building Fibre Toilet</t>
+  </si>
+  <si>
+    <t>70/77</t>
+  </si>
+  <si>
+    <t>107/116</t>
   </si>
   <si>
     <t>Electrification, new street lights,Underground cable</t>
@@ -504,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -543,7 +603,9 @@
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -586,7 +648,7 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
@@ -595,7 +657,7 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
@@ -606,14 +668,17 @@
     <xf borderId="11" fillId="0" fontId="0" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,7 +769,9 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -741,8 +808,15 @@
       <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="14">
+        <v>83.33</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -752,16 +826,17 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="12">
         <v>162136.31</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
@@ -771,16 +846,17 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="12">
         <v>154441.58</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
@@ -790,16 +866,17 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="12">
         <v>177460.1</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
@@ -809,22 +886,23 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="12">
         <v>179669.59</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="19" t="str">
         <f>SUM(D3:D7)</f>
@@ -833,48 +911,57 @@
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="10">
         <v>1.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="12">
         <v>190265.0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="14">
+        <v>84.41</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10">
         <v>2.0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="12">
         <v>149398.77</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="10">
         <v>3.0</v>
@@ -890,50 +977,53 @@
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" ht="18.0" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="10">
         <v>4.0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="12">
         <v>169814.0</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" ht="18.0" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="10">
         <v>5.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="12">
         <v>199438.0</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="19" t="str">
         <f>SUM(D9:D13)</f>
@@ -942,21 +1032,29 @@
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="10">
         <v>1.0</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="F15" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="14">
+        <v>87.93</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="10">
         <v>2.0</v>
@@ -966,10 +1064,11 @@
       <c r="E16" s="13"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="10">
         <v>3.0</v>
@@ -979,10 +1078,11 @@
       <c r="E17" s="13"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="10">
         <v>4.0</v>
@@ -992,155 +1092,185 @@
       <c r="E18" s="13"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="19" t="str">
-        <f>SUM(D15:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="12">
-        <v>197455.64</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+        <v>6.0</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="12">
-        <v>388016.62</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>7.0</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="12">
-        <v>389853.66</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="19" t="str">
+        <f>SUM(D15:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B23" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="C23" s="23" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="12">
+        <v>197455.64</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="12">
-        <v>184780.39</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="F23" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="H23" s="14">
+        <v>79.52</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>36</v>
+        <v>2.0</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="D24" s="12">
-        <v>149301.34</v>
+        <v>388016.62</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="19" t="str">
-        <f>SUM(D20:D24)</f>
+      <c r="A25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="12">
+        <v>389853.66</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="12">
+        <v>184780.39</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="12">
+        <v>149301.34</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="19" t="str">
+        <f>SUM(D23:D27)</f>
         <v>1309407.65</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="27" t="str">
-        <f>(D8+D14+D19+D25)</f>
-        <v>3911669.44</v>
-      </c>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29">
       <c r="A29" s="8"/>
@@ -1152,8 +1282,13 @@
     <row r="30">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="27" t="str">
+        <f>(D8+D14+D22+D28)</f>
+        <v>3911669.44</v>
+      </c>
       <c r="E30" s="25"/>
     </row>
     <row r="31">
@@ -7953,17 +8088,42 @@
       <c r="D1001" s="8"/>
       <c r="E1001" s="25"/>
     </row>
+    <row r="1002">
+      <c r="A1002" s="8"/>
+      <c r="B1002" s="8"/>
+      <c r="C1002" s="24"/>
+      <c r="D1002" s="8"/>
+      <c r="E1002" s="25"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="8"/>
+      <c r="C1003" s="24"/>
+      <c r="D1003" s="8"/>
+      <c r="E1003" s="25"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="8"/>
+      <c r="C1004" s="24"/>
+      <c r="D1004" s="8"/>
+      <c r="E1004" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="F9:F14"/>
+  <mergeCells count="13">
+    <mergeCell ref="G3:G8"/>
     <mergeCell ref="F3:F8"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="H15:H22"/>
+    <mergeCell ref="G23:G28"/>
+    <mergeCell ref="H23:H28"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="F15:F22"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H14"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7987,7 +8147,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8018,7 +8178,9 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -8047,16 +8209,23 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D3" s="12">
         <v>483002.19</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="14">
+        <v>48.48</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -8072,10 +8241,11 @@
         <v>358823.42</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
@@ -8085,16 +8255,17 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D5" s="12">
         <v>175673.16</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
@@ -8104,16 +8275,17 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D6" s="12">
         <v>194023.55</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="28"/>
@@ -8123,12 +8295,13 @@
       <c r="E7" s="13"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="19" t="str">
         <f>SUM(D3:D7)</f>
@@ -8137,10 +8310,11 @@
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="10">
         <v>1.0</v>
@@ -8154,46 +8328,55 @@
       <c r="E9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="14">
+        <v>50.64</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10">
         <v>2.0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D10" s="12">
         <v>196899.0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="10">
         <v>3.0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="12">
         <v>388617.2</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="28"/>
@@ -8203,12 +8386,13 @@
       <c r="E12" s="13"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="19" t="str">
         <f>SUM(D9:D12)</f>
@@ -8217,218 +8401,235 @@
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="10">
         <v>1.0</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="12">
-        <v>509323.0</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="14">
+        <v>43.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="10">
         <v>2.0</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="12">
-        <v>193744.9</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="10">
         <v>3.0</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="12">
-        <v>123976.6</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="10">
         <v>4.0</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="12">
-        <v>149674.8</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="10">
         <v>5.0</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="12">
-        <v>197965.8</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>22</v>
-      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="19" t="str">
-        <f>SUM(D14:D17)</f>
-        <v>976719.3</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="12">
-        <v>582333.94</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+        <v>7.0</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="12">
-        <v>978478.04</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>27</v>
-      </c>
+        <v>8.0</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22">
-      <c r="A22" s="28"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>9.0</v>
+      </c>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23">
-      <c r="A23" s="28"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="19" t="str">
+        <f>SUM(D14:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="19" t="str">
-        <f>SUM(D20:D23)</f>
+      <c r="A24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="12">
+        <v>582333.94</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="14">
+        <v>39.37</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="12">
+        <v>978478.04</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="28"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="28"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="19" t="str">
+        <f>SUM(D24:D27)</f>
         <v>1560811.98</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="27" t="str">
-        <f>(D8+D13+D19+D24)</f>
-        <v>4923469.8</v>
-      </c>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29">
       <c r="A29" s="8"/>
@@ -8440,8 +8641,13 @@
     <row r="30">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="27" t="str">
+        <f>(D8+D13+D23+D28)</f>
+        <v>3946750.5</v>
+      </c>
       <c r="E30" s="25"/>
     </row>
     <row r="31">
@@ -15234,17 +15440,49 @@
       <c r="D1000" s="8"/>
       <c r="E1000" s="25"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="8"/>
+      <c r="C1001" s="24"/>
+      <c r="D1001" s="8"/>
+      <c r="E1001" s="25"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="8"/>
+      <c r="B1002" s="8"/>
+      <c r="C1002" s="24"/>
+      <c r="D1002" s="8"/>
+      <c r="E1002" s="25"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="8"/>
+      <c r="C1003" s="24"/>
+      <c r="D1003" s="8"/>
+      <c r="E1003" s="25"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="8"/>
+      <c r="C1004" s="24"/>
+      <c r="D1004" s="8"/>
+      <c r="E1004" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="G20:G24"/>
+  <mergeCells count="13">
     <mergeCell ref="G9:G13"/>
-    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="H14:H23"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F14:F23"/>
+    <mergeCell ref="F3:F8"/>
     <mergeCell ref="G3:G8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="G14:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="H3:H8"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15253,10 +15491,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
@@ -15299,7 +15534,9 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -15334,10 +15571,17 @@
         <v>349656.37</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="14">
+        <v>90.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -15357,6 +15601,7 @@
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
@@ -15366,16 +15611,17 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="12">
         <v>130389.89</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
@@ -15385,16 +15631,17 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="12">
         <v>279222.15</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
@@ -15404,22 +15651,23 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="12">
         <v>126399.89</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="19" t="str">
         <f>SUM(D3:D7)</f>
@@ -15428,10 +15676,11 @@
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="10">
         <v>1.0</v>
@@ -15443,71 +15692,81 @@
         <v>307674.0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="14">
+        <v>66.23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10">
         <v>2.0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="12">
         <v>111106.0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="10">
         <v>3.0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="12">
         <v>319306.46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="10">
         <v>4.0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12" s="12">
         <v>253431.0</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="10">
         <v>5.0</v>
@@ -15523,31 +15782,33 @@
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="10">
         <v>6.0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D14" s="12">
         <v>160945.0</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="19" t="str">
         <f>SUM(D9:D12)</f>
@@ -15556,235 +15817,275 @@
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="10">
         <v>1.0</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="12">
-        <v>378640.79</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="14">
+        <v>60.34</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="10">
         <v>2.0</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="12">
-        <v>317322.4</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="10">
         <v>3.0</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="12">
-        <v>407018.3</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19">
-      <c r="A19" s="28"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="10">
+        <v>4.0</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="19" t="str">
-        <f>SUM(D16:D19)</f>
-        <v>1102981.49</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="12">
-        <v>312527.72</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+        <v>6.0</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="12">
-        <v>173874.88</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>7.0</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="12">
-        <v>78213.3</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>18</v>
-      </c>
+        <v>8.0</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="12">
-        <v>93279.78</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>68</v>
-      </c>
+        <v>9.0</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="19" t="str">
+        <f>SUM(D16:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="12">
+        <v>312527.72</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="14">
+        <v>58.26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="12">
+        <v>173874.88</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="12">
+        <v>78213.3</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="12">
+        <v>93279.78</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="12">
+        <v>136083.49</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="12">
-        <v>136083.49</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="19" t="str">
-        <f>SUM(D21:D25)</f>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="19" t="str">
+        <f>SUM(D26:D30)</f>
         <v>793979.17</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="27" t="str">
-        <f>(D8+D15+D20+D26)</f>
-        <v>4202311.22</v>
-      </c>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="25"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32">
       <c r="A32" s="8"/>
@@ -15796,8 +16097,13 @@
     <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="27" t="str">
+        <f>(D8+D15+D25+D31)</f>
+        <v>3099329.73</v>
+      </c>
       <c r="E33" s="25"/>
     </row>
     <row r="34">
@@ -22583,17 +22889,56 @@
       <c r="D1002" s="8"/>
       <c r="E1002" s="25"/>
     </row>
+    <row r="1003">
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="8"/>
+      <c r="C1003" s="24"/>
+      <c r="D1003" s="8"/>
+      <c r="E1003" s="25"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="8"/>
+      <c r="C1004" s="24"/>
+      <c r="D1004" s="8"/>
+      <c r="E1004" s="25"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="8"/>
+      <c r="B1005" s="8"/>
+      <c r="C1005" s="24"/>
+      <c r="D1005" s="8"/>
+      <c r="E1005" s="25"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="8"/>
+      <c r="B1006" s="8"/>
+      <c r="C1006" s="24"/>
+      <c r="D1006" s="8"/>
+      <c r="E1006" s="25"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="8"/>
+      <c r="B1007" s="8"/>
+      <c r="C1007" s="24"/>
+      <c r="D1007" s="8"/>
+      <c r="E1007" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="G9:G15"/>
+    <mergeCell ref="G16:G25"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H16:H25"/>
+    <mergeCell ref="H9:H15"/>
+    <mergeCell ref="H26:H31"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="F26:F31"/>
     <mergeCell ref="G3:G8"/>
-    <mergeCell ref="A1:G1"/>
     <mergeCell ref="F3:F8"/>
     <mergeCell ref="F9:F15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="G9:G15"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="F16:F25"/>
+    <mergeCell ref="H3:H8"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22617,7 +22962,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -22648,7 +22993,9 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -22677,16 +23024,23 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="12">
         <v>362548.56</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="F3" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="14">
+        <v>80.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -22696,16 +23050,17 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D4" s="12">
         <v>127177.74</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
@@ -22715,16 +23070,17 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="12">
         <v>120441.25</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
@@ -22734,16 +23090,17 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="12">
         <v>279222.15</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
@@ -22763,12 +23120,13 @@
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="19" t="str">
         <f>SUM(D3:D7)</f>
@@ -22777,10 +23135,11 @@
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="10">
         <v>1.0</v>
@@ -22794,12 +23153,19 @@
       <c r="E9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="14">
+        <v>77.92</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10">
         <v>2.0</v>
@@ -22811,52 +23177,55 @@
         <v>181311.6</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="10">
         <v>3.0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D11" s="12">
         <v>141973.0</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="10">
         <v>4.0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D12" s="12">
         <v>497648.0</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="10">
         <v>5.0</v>
@@ -22866,260 +23235,304 @@
       <c r="E13" s="13"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="10">
         <v>6.0</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="12">
-        <v>166109.0</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>64</v>
-      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="19" t="str">
+      <c r="A15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="12">
+        <v>166109.0</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="19" t="str">
         <f>SUM(D9:D12)</f>
         <v>1147693.6</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="10">
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="10">
         <v>1.0</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="12">
-        <v>122853.4</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="10">
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14">
         <v>2.0</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="12">
-        <v>319204.0</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="12">
-        <v>294375.7</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="19" t="str">
-        <f>SUM(D16:D19)</f>
-        <v>736433.1</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="14">
+        <v>83.62</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="32">
-        <v>126773.9</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+        <v>2.0</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="34">
-        <v>238908.0</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>33</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="34">
-        <v>125375.0</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>42</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="36">
-        <v>650155.62</v>
-      </c>
-      <c r="E24" s="37"/>
+        <v>5.0</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="38" t="str">
-        <f>SUM(D21:D24)</f>
+      <c r="A25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="19" t="str">
+        <f>SUM(D20:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="32">
+        <v>126773.9</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="14">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="34">
+        <v>238908.0</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="34">
+        <v>125375.0</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="36">
+        <v>650155.62</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="37" t="str">
+        <f>SUM(D27:D30)</f>
         <v>1141212.52</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="39" t="str">
-        <f>(D8+D15+D20+D25)</f>
-        <v>4025576.69</v>
-      </c>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="25"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32">
       <c r="A32" s="8"/>
@@ -23131,8 +23544,13 @@
     <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="38" t="str">
+        <f>(D8+D19+D26+D31)</f>
+        <v>3289143.59</v>
+      </c>
       <c r="E33" s="25"/>
     </row>
     <row r="34">
@@ -29911,17 +30329,63 @@
       <c r="D1001" s="8"/>
       <c r="E1001" s="25"/>
     </row>
+    <row r="1002">
+      <c r="A1002" s="8"/>
+      <c r="B1002" s="8"/>
+      <c r="C1002" s="24"/>
+      <c r="D1002" s="8"/>
+      <c r="E1002" s="25"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="8"/>
+      <c r="C1003" s="24"/>
+      <c r="D1003" s="8"/>
+      <c r="E1003" s="25"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="8"/>
+      <c r="C1004" s="24"/>
+      <c r="D1004" s="8"/>
+      <c r="E1004" s="25"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="8"/>
+      <c r="B1005" s="8"/>
+      <c r="C1005" s="24"/>
+      <c r="D1005" s="8"/>
+      <c r="E1005" s="25"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="8"/>
+      <c r="B1006" s="8"/>
+      <c r="C1006" s="24"/>
+      <c r="D1006" s="8"/>
+      <c r="E1006" s="25"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="8"/>
+      <c r="B1007" s="8"/>
+      <c r="C1007" s="24"/>
+      <c r="D1007" s="8"/>
+      <c r="E1007" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
+  <mergeCells count="13">
+    <mergeCell ref="H9:H19"/>
+    <mergeCell ref="G9:G19"/>
+    <mergeCell ref="F9:F19"/>
+    <mergeCell ref="F20:F26"/>
+    <mergeCell ref="H20:H26"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="G20:G26"/>
     <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="F3:F8"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="G9:G15"/>
-    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="F27:F31"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -29930,10 +30394,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
@@ -29945,7 +30406,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -29976,7 +30437,9 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -30010,9 +30473,18 @@
       <c r="D3" s="12">
         <v>189663.11</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="E3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="14">
+        <v>95.45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -30022,14 +30494,17 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D4" s="12">
         <v>144311.26</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
@@ -30039,14 +30514,17 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D5" s="12">
         <v>142733.26</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
@@ -30056,14 +30534,17 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="12">
         <v>353511.79</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
@@ -30073,14 +30554,17 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D7" s="12">
         <v>169818.85</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
@@ -30090,20 +30574,23 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D8" s="12">
         <v>127047.36</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="19" t="str">
         <f>SUM(D3:D7)</f>
@@ -30112,10 +30599,11 @@
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10">
         <v>1.0</v>
@@ -30123,12 +30611,19 @@
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="14">
+        <v>98.7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="10">
         <v>2.0</v>
@@ -30138,10 +30633,11 @@
       <c r="E11" s="13"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="10">
         <v>3.0</v>
@@ -30151,10 +30647,11 @@
       <c r="E12" s="13"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>20</v>
+      <c r="A13" s="39" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="10">
         <v>4.0</v>
@@ -30164,237 +30661,312 @@
       <c r="E13" s="13"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="19" t="str">
-        <f>SUM(D10:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>28</v>
+      <c r="A15" s="39" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B16" s="10">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B17" s="10">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="19" t="str">
+        <f>SUM(D10:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="19" t="str">
-        <f>SUM(D15:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="14">
+        <v>93.1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="12">
-        <v>545717.3</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+        <v>2.0</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="12">
-        <v>144299.27</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="12">
-        <v>24953.6</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>85</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="12">
-        <v>167875.0</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="19" t="str">
-        <f>SUM(D20:D23)</f>
+      <c r="A24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="19" t="str">
+        <f>SUM(D19:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="12">
+        <v>545717.3</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="14">
+        <v>92.91</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="12">
+        <v>144299.27</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="12">
+        <v>24953.6</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="12">
+        <v>167875.0</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="19" t="str">
+        <f>SUM(D28:D31)</f>
         <v>882845.17</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="27" t="str">
-        <f>(D9+D14+D19+D24)</f>
-        <v>1882883.44</v>
-      </c>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="25"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="25"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
@@ -30406,8 +30978,13 @@
     <row r="34">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="27" t="str">
+        <f>(D9+D18+D27+D32)</f>
+        <v>1882883.44</v>
+      </c>
       <c r="E34" s="25"/>
     </row>
     <row r="35">
@@ -37172,17 +37749,77 @@
       <c r="D1000" s="8"/>
       <c r="E1000" s="25"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="8"/>
+      <c r="C1001" s="24"/>
+      <c r="D1001" s="8"/>
+      <c r="E1001" s="25"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="8"/>
+      <c r="B1002" s="8"/>
+      <c r="C1002" s="24"/>
+      <c r="D1002" s="8"/>
+      <c r="E1002" s="25"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="8"/>
+      <c r="C1003" s="24"/>
+      <c r="D1003" s="8"/>
+      <c r="E1003" s="25"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="8"/>
+      <c r="C1004" s="24"/>
+      <c r="D1004" s="8"/>
+      <c r="E1004" s="25"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="8"/>
+      <c r="B1005" s="8"/>
+      <c r="C1005" s="24"/>
+      <c r="D1005" s="8"/>
+      <c r="E1005" s="25"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="8"/>
+      <c r="B1006" s="8"/>
+      <c r="C1006" s="24"/>
+      <c r="D1006" s="8"/>
+      <c r="E1006" s="25"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="8"/>
+      <c r="B1007" s="8"/>
+      <c r="C1007" s="24"/>
+      <c r="D1007" s="8"/>
+      <c r="E1007" s="25"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="8"/>
+      <c r="B1008" s="8"/>
+      <c r="C1008" s="24"/>
+      <c r="D1008" s="8"/>
+      <c r="E1008" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="G15:G19"/>
+  <mergeCells count="13">
+    <mergeCell ref="H3:H9"/>
     <mergeCell ref="G3:G9"/>
-    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="F3:F9"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G19:G27"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="F19:F27"/>
+    <mergeCell ref="H10:H18"/>
+    <mergeCell ref="F10:F18"/>
+    <mergeCell ref="G10:G18"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="H19:H27"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -37206,7 +37843,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -37237,7 +37874,9 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -37266,14 +37905,23 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D3" s="12">
         <v>223599.08</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="E3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="14">
+        <v>68.18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -37283,14 +37931,17 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D4" s="12">
         <v>282323.44</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
@@ -37300,14 +37951,17 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D5" s="12">
         <v>119866.68</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
@@ -37317,20 +37971,23 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D6" s="12">
         <v>259679.41</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="19" t="str">
         <f>SUM(D3:D6)</f>
@@ -37339,10 +37996,11 @@
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="10">
         <v>1.0</v>
@@ -37350,12 +38008,19 @@
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="14">
+        <v>83.11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="10">
         <v>2.0</v>
@@ -37365,10 +38030,11 @@
       <c r="E9" s="13"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10">
         <v>3.0</v>
@@ -37378,10 +38044,11 @@
       <c r="E10" s="13"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="10">
         <v>4.0</v>
@@ -37391,242 +38058,352 @@
       <c r="E11" s="13"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="19" t="str">
-        <f>SUM(D8:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B13" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" s="10">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B15" s="10">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B16" s="10">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="19" t="str">
-        <f>SUM(D13:D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B18" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="19" t="str">
+        <f>SUM(D8:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="10">
         <v>1.0</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="12">
-        <v>394838.44</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="28"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="28"/>
-      <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="F20" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="14">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="28"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2.0</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="19" t="str">
-        <f>SUM(D18:D21)</f>
+      <c r="A22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="19" t="str">
+        <f>SUM(D20:D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="12">
         <v>394838.44</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="27" t="str">
-        <f>(D7+D12+D17+D22)</f>
-        <v>1280307.05</v>
-      </c>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="25"/>
+      <c r="E31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="14">
+        <v>47.24</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="25"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
     </row>
     <row r="34">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="25"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="25"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="19" t="str">
+        <f>SUM(D31:D34)</f>
+        <v>394838.44</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36">
       <c r="A36" s="8"/>
@@ -37638,8 +38415,13 @@
     <row r="37">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="27" t="str">
+        <f>(D7+D19+D30+D35)</f>
+        <v>1280307.05</v>
+      </c>
       <c r="E37" s="25"/>
     </row>
     <row r="38">
@@ -44369,17 +45151,112 @@
       <c r="D998" s="8"/>
       <c r="E998" s="25"/>
     </row>
+    <row r="999">
+      <c r="A999" s="8"/>
+      <c r="B999" s="8"/>
+      <c r="C999" s="24"/>
+      <c r="D999" s="8"/>
+      <c r="E999" s="25"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="8"/>
+      <c r="B1000" s="8"/>
+      <c r="C1000" s="24"/>
+      <c r="D1000" s="8"/>
+      <c r="E1000" s="25"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="8"/>
+      <c r="C1001" s="24"/>
+      <c r="D1001" s="8"/>
+      <c r="E1001" s="25"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="8"/>
+      <c r="B1002" s="8"/>
+      <c r="C1002" s="24"/>
+      <c r="D1002" s="8"/>
+      <c r="E1002" s="25"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="8"/>
+      <c r="C1003" s="24"/>
+      <c r="D1003" s="8"/>
+      <c r="E1003" s="25"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="8"/>
+      <c r="C1004" s="24"/>
+      <c r="D1004" s="8"/>
+      <c r="E1004" s="25"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="8"/>
+      <c r="B1005" s="8"/>
+      <c r="C1005" s="24"/>
+      <c r="D1005" s="8"/>
+      <c r="E1005" s="25"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="8"/>
+      <c r="B1006" s="8"/>
+      <c r="C1006" s="24"/>
+      <c r="D1006" s="8"/>
+      <c r="E1006" s="25"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="8"/>
+      <c r="B1007" s="8"/>
+      <c r="C1007" s="24"/>
+      <c r="D1007" s="8"/>
+      <c r="E1007" s="25"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="8"/>
+      <c r="B1008" s="8"/>
+      <c r="C1008" s="24"/>
+      <c r="D1008" s="8"/>
+      <c r="E1008" s="25"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="8"/>
+      <c r="B1009" s="8"/>
+      <c r="C1009" s="24"/>
+      <c r="D1009" s="8"/>
+      <c r="E1009" s="25"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="8"/>
+      <c r="B1010" s="8"/>
+      <c r="C1010" s="24"/>
+      <c r="D1010" s="8"/>
+      <c r="E1010" s="25"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="8"/>
+      <c r="B1011" s="8"/>
+      <c r="C1011" s="24"/>
+      <c r="D1011" s="8"/>
+      <c r="E1011" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
     <mergeCell ref="G3:G7"/>
+    <mergeCell ref="F3:F7"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="G20:G30"/>
+    <mergeCell ref="F8:F19"/>
+    <mergeCell ref="G8:G19"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="H20:H30"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H8:H19"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="F20:F30"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -44403,7 +45280,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -44434,7 +45311,9 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -44463,14 +45342,23 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D3" s="12">
         <v>223558.06</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="E3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="14">
+        <v>31.81</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -44480,14 +45368,17 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D4" s="12">
         <v>127282.56</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
@@ -44497,14 +45388,17 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D5" s="12">
         <v>123339.33</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
@@ -44514,14 +45408,17 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D6" s="12">
         <v>544526.76</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
@@ -44531,14 +45428,17 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D7" s="12">
         <v>137113.84</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
@@ -44553,15 +45453,18 @@
       <c r="D8" s="12">
         <v>142340.67</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="19" t="str">
         <f>SUM(D3:D7)</f>
@@ -44570,10 +45473,11 @@
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10">
         <v>1.0</v>
@@ -44581,12 +45485,19 @@
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="14">
+        <v>44.15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="10">
         <v>2.0</v>
@@ -44596,10 +45507,11 @@
       <c r="E11" s="13"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="10">
         <v>3.0</v>
@@ -44609,10 +45521,11 @@
       <c r="E12" s="13"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="10">
         <v>4.0</v>
@@ -44622,288 +45535,443 @@
       <c r="E13" s="13"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="19" t="str">
-        <f>SUM(D10:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B15" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B16" s="10">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B17" s="10">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B18" s="10">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="19" t="str">
-        <f>SUM(D15:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B20" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="12">
-        <v>679102.2</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+        <v>11.0</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B21" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="12">
-        <v>402340.84</v>
-      </c>
+        <v>12.0</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="13"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22">
-      <c r="A22" s="28"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>13.0</v>
+      </c>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23">
-      <c r="A23" s="28"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="19" t="str">
+        <f>SUM(D10:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="19" t="str">
-        <f>SUM(D20:D23)</f>
+      <c r="A24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="14">
+        <v>33.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="19" t="str">
+        <f>SUM(D24:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="12">
+        <v>679102.2</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="14">
+        <v>95.27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="12">
+        <v>402340.84</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="28"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="28"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="19" t="str">
+        <f>SUM(D38:D41)</f>
         <v>1081443.04</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="27" t="str">
-        <f>(D9+D14+D19+D24)</f>
-        <v>2237263.59</v>
-      </c>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="25"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="25"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="25"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="25"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="25"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="25"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="25"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="25"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="25"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="25"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="25"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="27" t="str">
+        <f>(D9+D23+D37+D42)</f>
+        <v>2237263.59</v>
+      </c>
       <c r="E43" s="25"/>
     </row>
     <row r="44">
@@ -51598,17 +52666,147 @@
       <c r="D999" s="8"/>
       <c r="E999" s="25"/>
     </row>
+    <row r="1000">
+      <c r="A1000" s="8"/>
+      <c r="B1000" s="8"/>
+      <c r="C1000" s="24"/>
+      <c r="D1000" s="8"/>
+      <c r="E1000" s="25"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="8"/>
+      <c r="C1001" s="24"/>
+      <c r="D1001" s="8"/>
+      <c r="E1001" s="25"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="8"/>
+      <c r="B1002" s="8"/>
+      <c r="C1002" s="24"/>
+      <c r="D1002" s="8"/>
+      <c r="E1002" s="25"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="8"/>
+      <c r="C1003" s="24"/>
+      <c r="D1003" s="8"/>
+      <c r="E1003" s="25"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="8"/>
+      <c r="C1004" s="24"/>
+      <c r="D1004" s="8"/>
+      <c r="E1004" s="25"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="8"/>
+      <c r="B1005" s="8"/>
+      <c r="C1005" s="24"/>
+      <c r="D1005" s="8"/>
+      <c r="E1005" s="25"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="8"/>
+      <c r="B1006" s="8"/>
+      <c r="C1006" s="24"/>
+      <c r="D1006" s="8"/>
+      <c r="E1006" s="25"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="8"/>
+      <c r="B1007" s="8"/>
+      <c r="C1007" s="24"/>
+      <c r="D1007" s="8"/>
+      <c r="E1007" s="25"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="8"/>
+      <c r="B1008" s="8"/>
+      <c r="C1008" s="24"/>
+      <c r="D1008" s="8"/>
+      <c r="E1008" s="25"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="8"/>
+      <c r="B1009" s="8"/>
+      <c r="C1009" s="24"/>
+      <c r="D1009" s="8"/>
+      <c r="E1009" s="25"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="8"/>
+      <c r="B1010" s="8"/>
+      <c r="C1010" s="24"/>
+      <c r="D1010" s="8"/>
+      <c r="E1010" s="25"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="8"/>
+      <c r="B1011" s="8"/>
+      <c r="C1011" s="24"/>
+      <c r="D1011" s="8"/>
+      <c r="E1011" s="25"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="8"/>
+      <c r="B1012" s="8"/>
+      <c r="C1012" s="24"/>
+      <c r="D1012" s="8"/>
+      <c r="E1012" s="25"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="8"/>
+      <c r="B1013" s="8"/>
+      <c r="C1013" s="24"/>
+      <c r="D1013" s="8"/>
+      <c r="E1013" s="25"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="8"/>
+      <c r="B1014" s="8"/>
+      <c r="C1014" s="24"/>
+      <c r="D1014" s="8"/>
+      <c r="E1014" s="25"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="8"/>
+      <c r="B1015" s="8"/>
+      <c r="C1015" s="24"/>
+      <c r="D1015" s="8"/>
+      <c r="E1015" s="25"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="8"/>
+      <c r="B1016" s="8"/>
+      <c r="C1016" s="24"/>
+      <c r="D1016" s="8"/>
+      <c r="E1016" s="25"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="8"/>
+      <c r="B1017" s="8"/>
+      <c r="C1017" s="24"/>
+      <c r="D1017" s="8"/>
+      <c r="E1017" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="F24:F37"/>
+    <mergeCell ref="G24:G37"/>
     <mergeCell ref="G3:G9"/>
+    <mergeCell ref="G10:G23"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="H10:H23"/>
+    <mergeCell ref="H3:H9"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="F10:F23"/>
     <mergeCell ref="F3:F9"/>
-    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H24:H37"/>
+    <mergeCell ref="F38:F42"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -51617,10 +52815,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
@@ -51632,7 +52827,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -51663,7 +52858,9 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -51692,14 +52889,23 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D3" s="12">
         <v>567836.79</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="E3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="14">
+        <v>83.33</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -51709,14 +52915,17 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D4" s="12">
         <v>339359.79</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
@@ -51726,14 +52935,17 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D5" s="12">
         <v>62487.02</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
@@ -51743,20 +52955,23 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D6" s="12">
         <v>71510.91</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="19" t="str">
         <f>SUM(D3:D6)</f>
@@ -51765,10 +52980,11 @@
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="10">
         <v>1.0</v>
@@ -51776,12 +52992,19 @@
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="14">
+        <v>90.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="10">
         <v>2.0</v>
@@ -51791,10 +53014,11 @@
       <c r="E9" s="13"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10">
         <v>3.0</v>
@@ -51804,10 +53028,11 @@
       <c r="E10" s="13"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="10">
         <v>4.0</v>
@@ -51817,293 +53042,424 @@
       <c r="E11" s="13"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="19" t="str">
-        <f>SUM(D8:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B13" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" s="10">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B15" s="10">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B16" s="10">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="19" t="str">
-        <f>SUM(D13:D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B18" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="12">
-        <v>617069.65</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+        <v>11.0</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="12">
-        <v>143527.39</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="19" t="str">
+        <f>SUM(D8:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="12">
-        <v>197003.86</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="14">
+        <v>92.24</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="12">
-        <v>143094.1</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>31</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="19" t="str">
-        <f>SUM(D18:D21)</f>
+      <c r="A22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="19" t="str">
+        <f>SUM(D20:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="12">
+        <v>617069.65</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="14">
+        <v>9.0</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="14">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="12">
+        <v>143527.39</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="12">
+        <v>197003.86</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="12">
+        <v>143094.1</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="19" t="str">
+        <f>SUM(D34:D37)</f>
         <v>1100695</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="27" t="str">
-        <f>(D7+D12+D17+D22)</f>
-        <v>2141889.51</v>
-      </c>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="25"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="25"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="25"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="25"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="25"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="25"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="25"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39">
       <c r="A39" s="8"/>
@@ -52115,8 +53471,13 @@
     <row r="40">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="27" t="str">
+        <f>(D7+D19+D33+D38)</f>
+        <v>2141889.51</v>
+      </c>
       <c r="E40" s="25"/>
     </row>
     <row r="41">
@@ -58825,17 +60186,133 @@
       <c r="D998" s="8"/>
       <c r="E998" s="25"/>
     </row>
+    <row r="999">
+      <c r="A999" s="8"/>
+      <c r="B999" s="8"/>
+      <c r="C999" s="24"/>
+      <c r="D999" s="8"/>
+      <c r="E999" s="25"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="8"/>
+      <c r="B1000" s="8"/>
+      <c r="C1000" s="24"/>
+      <c r="D1000" s="8"/>
+      <c r="E1000" s="25"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="8"/>
+      <c r="C1001" s="24"/>
+      <c r="D1001" s="8"/>
+      <c r="E1001" s="25"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="8"/>
+      <c r="B1002" s="8"/>
+      <c r="C1002" s="24"/>
+      <c r="D1002" s="8"/>
+      <c r="E1002" s="25"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="8"/>
+      <c r="C1003" s="24"/>
+      <c r="D1003" s="8"/>
+      <c r="E1003" s="25"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="8"/>
+      <c r="C1004" s="24"/>
+      <c r="D1004" s="8"/>
+      <c r="E1004" s="25"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="8"/>
+      <c r="B1005" s="8"/>
+      <c r="C1005" s="24"/>
+      <c r="D1005" s="8"/>
+      <c r="E1005" s="25"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="8"/>
+      <c r="B1006" s="8"/>
+      <c r="C1006" s="24"/>
+      <c r="D1006" s="8"/>
+      <c r="E1006" s="25"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="8"/>
+      <c r="B1007" s="8"/>
+      <c r="C1007" s="24"/>
+      <c r="D1007" s="8"/>
+      <c r="E1007" s="25"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="8"/>
+      <c r="B1008" s="8"/>
+      <c r="C1008" s="24"/>
+      <c r="D1008" s="8"/>
+      <c r="E1008" s="25"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="8"/>
+      <c r="B1009" s="8"/>
+      <c r="C1009" s="24"/>
+      <c r="D1009" s="8"/>
+      <c r="E1009" s="25"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="8"/>
+      <c r="B1010" s="8"/>
+      <c r="C1010" s="24"/>
+      <c r="D1010" s="8"/>
+      <c r="E1010" s="25"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="8"/>
+      <c r="B1011" s="8"/>
+      <c r="C1011" s="24"/>
+      <c r="D1011" s="8"/>
+      <c r="E1011" s="25"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="8"/>
+      <c r="B1012" s="8"/>
+      <c r="C1012" s="24"/>
+      <c r="D1012" s="8"/>
+      <c r="E1012" s="25"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="8"/>
+      <c r="B1013" s="8"/>
+      <c r="C1013" s="24"/>
+      <c r="D1013" s="8"/>
+      <c r="E1013" s="25"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="8"/>
+      <c r="B1014" s="8"/>
+      <c r="C1014" s="24"/>
+      <c r="D1014" s="8"/>
+      <c r="E1014" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="G13:G17"/>
+  <mergeCells count="13">
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F8:F12"/>
     <mergeCell ref="F3:F7"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="F20:F33"/>
+    <mergeCell ref="F8:F19"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="G20:G33"/>
+    <mergeCell ref="H20:H33"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H8:H19"/>
+    <mergeCell ref="G8:G19"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/csv/main-files/Hadapsar.xlsx
+++ b/csv/main-files/Hadapsar.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="136">
   <si>
     <t>Prabhag 42 A : Mrs. Vijaya Kapre</t>
   </si>
@@ -227,13 +227,46 @@
     <t>Prabhag 43B : Mrs. Ranjana Pawar</t>
   </si>
   <si>
+    <t>Concretization</t>
+  </si>
+  <si>
     <t>53/66</t>
+  </si>
+  <si>
+    <t>Electrification</t>
+  </si>
+  <si>
+    <t>School repair and maintenance</t>
+  </si>
+  <si>
+    <t>Aarogya Kothi maintenance</t>
   </si>
   <si>
     <t>60/77</t>
   </si>
   <si>
+    <t>Paving blocks</t>
+  </si>
+  <si>
+    <t>Installation of direction boards</t>
+  </si>
+  <si>
+    <t>Waste disposal equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fencing </t>
+  </si>
+  <si>
+    <t>Toys installation in garden</t>
+  </si>
+  <si>
     <t>97/116</t>
+  </si>
+  <si>
+    <t>Fencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrification </t>
   </si>
   <si>
     <t>Replacement of Chamber covers on Road</t>
@@ -260,7 +293,28 @@
     <t>76/77</t>
   </si>
   <si>
+    <t>Drainage cleaning</t>
+  </si>
+  <si>
+    <t>Decoration of roads</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Distribution of dustbins</t>
+  </si>
+  <si>
+    <t>Gym equipments</t>
+  </si>
+  <si>
     <t>108/116</t>
+  </si>
+  <si>
+    <t>Garden decoration</t>
+  </si>
+  <si>
+    <t>Direction boards</t>
   </si>
   <si>
     <t>Installation of Blinking Lights and Pole decoration,new street lights</t>
@@ -281,10 +335,19 @@
     <t>45/66</t>
   </si>
   <si>
+    <t>Drainage line</t>
+  </si>
+  <si>
     <t>64/77</t>
   </si>
   <si>
+    <t>Road works</t>
+  </si>
+  <si>
     <t>100/116</t>
+  </si>
+  <si>
+    <t>Watchman quarters for school</t>
   </si>
   <si>
     <t xml:space="preserve">Drainage Cleaning </t>
@@ -296,13 +359,40 @@
     <t>Prabhag 45A : Nana Bhangire</t>
   </si>
   <si>
+    <t>Fencing wall</t>
+  </si>
+  <si>
     <t>21/66</t>
+  </si>
+  <si>
+    <t>Cremetory</t>
+  </si>
+  <si>
+    <t>CM</t>
   </si>
   <si>
     <t>34/77</t>
   </si>
   <si>
+    <t>Direction board</t>
+  </si>
+  <si>
+    <t>Grouting</t>
+  </si>
+  <si>
     <t>39/116</t>
+  </si>
+  <si>
+    <t>Maintenance-cleaning</t>
+  </si>
+  <si>
+    <t>Maintenance-murum</t>
+  </si>
+  <si>
+    <t>Development work</t>
+  </si>
+  <si>
+    <t>DW</t>
   </si>
   <si>
     <t>Drainage Cleaning and Maintenance</t>
@@ -314,7 +404,19 @@
     <t>Prabhag 45B : Vijaya Wadkar</t>
   </si>
   <si>
+    <t>Maitenance- Murum</t>
+  </si>
+  <si>
+    <t>Toilet</t>
+  </si>
+  <si>
     <t>70/77</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Water pipeline</t>
   </si>
   <si>
     <t>107/116</t>
@@ -8315,19 +8417,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H11:H20"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="G11:G20"/>
     <mergeCell ref="G21:G28"/>
-    <mergeCell ref="H21:H28"/>
-    <mergeCell ref="H11:H20"/>
-    <mergeCell ref="H3:H10"/>
-    <mergeCell ref="G11:G20"/>
-    <mergeCell ref="H29:H34"/>
     <mergeCell ref="F21:F28"/>
     <mergeCell ref="F11:F20"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="H3:H10"/>
     <mergeCell ref="G3:G10"/>
-    <mergeCell ref="F3:F10"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="F29:F34"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15870,19 +15972,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G22:G31"/>
+    <mergeCell ref="G12:G21"/>
+    <mergeCell ref="H12:H21"/>
+    <mergeCell ref="H3:H11"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="H22:H31"/>
+    <mergeCell ref="G3:G11"/>
+    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="F22:F31"/>
     <mergeCell ref="F32:F36"/>
-    <mergeCell ref="G3:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H3:H11"/>
-    <mergeCell ref="H12:H21"/>
-    <mergeCell ref="F3:F11"/>
-    <mergeCell ref="G22:G31"/>
-    <mergeCell ref="G12:G21"/>
+    <mergeCell ref="G32:G36"/>
     <mergeCell ref="F12:F21"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="H22:H31"/>
-    <mergeCell ref="G32:G36"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -23507,18 +23609,18 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="G14:G22"/>
-    <mergeCell ref="F14:F22"/>
+    <mergeCell ref="G3:G13"/>
+    <mergeCell ref="H3:H13"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F3:F13"/>
     <mergeCell ref="F23:F32"/>
     <mergeCell ref="G23:G32"/>
     <mergeCell ref="H23:H32"/>
-    <mergeCell ref="H33:H38"/>
+    <mergeCell ref="H14:H22"/>
+    <mergeCell ref="F14:F22"/>
     <mergeCell ref="G33:G38"/>
     <mergeCell ref="F33:F38"/>
-    <mergeCell ref="G3:G13"/>
-    <mergeCell ref="H3:H13"/>
-    <mergeCell ref="H14:H22"/>
+    <mergeCell ref="H33:H38"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -23603,14 +23705,20 @@
       <c r="B3" s="44">
         <v>1.0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="57">
+        <v>121707.24</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>26</v>
+      </c>
       <c r="F3" s="47">
         <v>3.0</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" s="47">
         <v>80.3</v>
@@ -23623,9 +23731,15 @@
       <c r="B4" s="44">
         <v>2.0</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="57">
+        <v>119591.54</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>26</v>
+      </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -23637,9 +23751,15 @@
       <c r="B5" s="44">
         <v>3.0</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="57">
+        <v>121249.78</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>26</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -23651,9 +23771,15 @@
       <c r="B6" s="44">
         <v>4.0</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="57">
+        <v>127177.74</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -23665,114 +23791,156 @@
       <c r="B7" s="44">
         <v>5.0</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="57">
+        <v>120441.25</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8">
-      <c r="A8" s="18"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="58" t="str">
-        <f>SUM(D3:D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="44">
+        <v>6.0</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="57">
+        <v>172665.58</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B9" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="47">
-        <v>77.92</v>
-      </c>
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="57">
+        <v>106556.57</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B10" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="46"/>
+        <v>8.0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="57">
+        <v>145137.96</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B11" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="46"/>
+        <v>9.0</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="57">
+        <v>143314.07</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="44">
-        <v>4.0</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="58" t="str">
+        <f>SUM(D3:D11)</f>
+        <v>1177841.73</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="57">
+        <v>161129.0</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="47">
+        <v>77.92</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="46"/>
+        <v>2.0</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="57">
+        <v>165632.0</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -23782,11 +23950,17 @@
         <v>21</v>
       </c>
       <c r="B15" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="46"/>
+        <v>3.0</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="57">
+        <v>141973.0</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -23796,11 +23970,17 @@
         <v>21</v>
       </c>
       <c r="B16" s="44">
-        <v>8.0</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="46"/>
+        <v>4.0</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="57">
+        <v>199966.0</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>24</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -23810,11 +23990,17 @@
         <v>21</v>
       </c>
       <c r="B17" s="44">
-        <v>9.0</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="46"/>
+        <v>5.0</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="57">
+        <v>161315.0</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>24</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -23824,84 +24010,107 @@
         <v>21</v>
       </c>
       <c r="B18" s="44">
-        <v>10.0</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="46"/>
+        <v>6.0</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="57">
+        <v>155239.0</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>38</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
     <row r="19">
-      <c r="A19" s="18"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="58" t="str">
-        <f>SUM(D9:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="A19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="44">
+        <v>7.0</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="57">
+        <v>153922.0</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B20" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47">
-        <v>2.0</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="47">
-        <v>83.62</v>
-      </c>
+        <v>8.0</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="57">
+        <v>155029.0</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B21" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="46"/>
+        <v>9.0</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="57">
+        <v>166109.0</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>67</v>
+      </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B22" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="46"/>
+        <v>10.0</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="57">
+        <v>188487.0</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>38</v>
+      </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B23" s="44">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="57"/>
@@ -23911,89 +24120,101 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="58" t="str">
+        <f>SUM(D13:D16)</f>
+        <v>668700</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="57">
+        <v>122853.4</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="47">
+        <v>2.0</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="47">
+        <v>83.62</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="18"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="58" t="str">
-        <f>SUM(D20:D25)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="A26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="57">
+        <v>195759.5</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B27" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="62">
-        <v>126773.9</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="G27" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="47">
-        <v>93.7</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="57">
+        <v>159362.0</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B28" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="64">
-        <v>238908.0</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>32</v>
+        <v>4.0</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="57">
+        <v>159842.0</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>10</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -24001,19 +24222,19 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B29" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="64">
-        <v>125375.0</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>15</v>
+        <v>5.0</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="57">
+        <v>147078.7</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -24021,85 +24242,153 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B30" s="44">
-        <v>4.0</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="66">
-        <v>650155.62</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>13</v>
+        <v>6.0</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="57">
+        <v>147297.0</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
     <row r="31">
-      <c r="A31" s="18"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="35" t="s">
+      <c r="A31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="44">
+        <v>7.0</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="18"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="67" t="str">
-        <f>SUM(D27:D30)</f>
+      <c r="D32" s="58" t="str">
+        <f>SUM(D25:D31)</f>
+        <v>932192.6</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="62">
+        <v>126773.9</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="47">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="64">
+        <v>238908.0</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="64">
+        <v>125375.0</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="44">
+        <v>4.0</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="66">
+        <v>650155.62</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="18"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="67" t="str">
+        <f>SUM(D33:D36)</f>
         <v>1141212.52</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="36"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="68" t="str">
-        <f>(D8+D19+D26+D31)</f>
-        <v>1141212.52</v>
-      </c>
-      <c r="E33" s="36"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="36"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="36"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="36"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="36"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38">
       <c r="A38" s="8"/>
@@ -24111,8 +24400,13 @@
     <row r="39">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="8"/>
+      <c r="C39" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="68" t="str">
+        <f>(D12+D24+D32+D37)</f>
+        <v>3919946.85</v>
+      </c>
       <c r="E39" s="36"/>
     </row>
     <row r="40">
@@ -30891,21 +31185,63 @@
       <c r="D1007" s="8"/>
       <c r="E1007" s="36"/>
     </row>
+    <row r="1008">
+      <c r="A1008" s="8"/>
+      <c r="B1008" s="8"/>
+      <c r="C1008" s="4"/>
+      <c r="D1008" s="8"/>
+      <c r="E1008" s="36"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="8"/>
+      <c r="B1009" s="8"/>
+      <c r="C1009" s="4"/>
+      <c r="D1009" s="8"/>
+      <c r="E1009" s="36"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="8"/>
+      <c r="B1010" s="8"/>
+      <c r="C1010" s="4"/>
+      <c r="D1010" s="8"/>
+      <c r="E1010" s="36"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="8"/>
+      <c r="B1011" s="8"/>
+      <c r="C1011" s="4"/>
+      <c r="D1011" s="8"/>
+      <c r="E1011" s="36"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="8"/>
+      <c r="B1012" s="8"/>
+      <c r="C1012" s="4"/>
+      <c r="D1012" s="8"/>
+      <c r="E1012" s="36"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="8"/>
+      <c r="B1013" s="8"/>
+      <c r="C1013" s="4"/>
+      <c r="D1013" s="8"/>
+      <c r="E1013" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="H3:H8"/>
-    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="F25:F32"/>
+    <mergeCell ref="G25:G32"/>
+    <mergeCell ref="F3:F12"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F9:F19"/>
-    <mergeCell ref="F20:F26"/>
-    <mergeCell ref="H9:H19"/>
-    <mergeCell ref="H20:H26"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="G20:G26"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="G9:G19"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="H13:H24"/>
+    <mergeCell ref="H33:H37"/>
+    <mergeCell ref="H25:H32"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="F13:F24"/>
+    <mergeCell ref="G13:G24"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30926,7 +31262,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -30987,14 +31323,20 @@
       <c r="B3" s="44">
         <v>1.0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="57">
+        <v>189663.11</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="47">
         <v>0.0</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H3" s="47">
         <v>95.45</v>
@@ -31007,9 +31349,15 @@
       <c r="B4" s="44">
         <v>2.0</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="57">
+        <v>142733.26</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -31021,9 +31369,15 @@
       <c r="B5" s="44">
         <v>3.0</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="57">
+        <v>169898.85</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -31035,9 +31389,15 @@
       <c r="B6" s="44">
         <v>4.0</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="57">
+        <v>127047.36</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -31049,114 +31409,152 @@
       <c r="B7" s="44">
         <v>5.0</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="57">
+        <v>1.0468063E7</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="9"/>
       <c r="B8" s="44">
         <v>6.0</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="46"/>
+      <c r="C8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="57">
+        <v>144311.28</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9">
-      <c r="A9" s="18"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="58" t="str">
-        <f>SUM(D3:D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="44">
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="57">
+        <v>130705.95</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B10" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47">
-        <v>3.0</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="47">
-        <v>98.7</v>
-      </c>
+        <v>8.0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="57">
+        <v>118926.01</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="58" t="str">
+        <f>SUM(D3:D7)</f>
+        <v>11097405.58</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="57">
+        <v>132500.0</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="47">
         <v>3.0</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="47">
+        <v>98.7</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="44">
-        <v>4.0</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="46"/>
+        <v>2.0</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="57">
+        <v>199684.0</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="46"/>
+        <v>3.0</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="57">
+        <v>132981.0</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -31166,116 +31564,156 @@
         <v>21</v>
       </c>
       <c r="B15" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="46"/>
+        <v>4.0</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="57">
+        <v>128465.0</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="69" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="46"/>
+        <v>5.0</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="57">
+        <v>129314.0</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="69" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="44">
-        <v>8.0</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="46"/>
+        <v>6.0</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="57">
+        <v>199480.0</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>93</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
     <row r="18">
-      <c r="A18" s="18"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="58" t="str">
-        <f>SUM(D10:D17)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="44">
+        <v>7.0</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="57">
+        <v>170000.0</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B19" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="57"/>
+        <v>8.0</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="57">
+        <v>199995.0</v>
+      </c>
       <c r="E19" s="46"/>
-      <c r="F19" s="47">
-        <v>2.0</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="47">
-        <v>93.1</v>
-      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="58" t="str">
+        <f>SUM(D12:D19)</f>
+        <v>1292419</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="57">
+        <v>119902.9</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="47">
+        <v>2.0</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="47">
+        <v>93.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="44">
-        <v>4.0</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="46"/>
+        <v>2.0</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="57">
+        <v>199106.6</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>67</v>
+      </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -31285,11 +31723,17 @@
         <v>27</v>
       </c>
       <c r="B23" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="46"/>
+        <v>3.0</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="57">
+        <v>119879.3</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -31299,11 +31743,17 @@
         <v>27</v>
       </c>
       <c r="B24" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="46"/>
+        <v>4.0</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="57">
+        <v>119714.0</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -31313,11 +31763,17 @@
         <v>27</v>
       </c>
       <c r="B25" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="46"/>
+        <v>5.0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="57">
+        <v>141749.2</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>24</v>
+      </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -31327,156 +31783,188 @@
         <v>27</v>
       </c>
       <c r="B26" s="44">
-        <v>8.0</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="46"/>
+        <v>6.0</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="57">
+        <v>139950.0</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
     <row r="27">
-      <c r="A27" s="18"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="58" t="str">
-        <f>SUM(D19:D26)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="A27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="44">
+        <v>7.0</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="57">
+        <v>133939.6</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="A28" s="9"/>
       <c r="B28" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>81</v>
+        <v>8.0</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="D28" s="57">
-        <v>545717.3</v>
+        <v>125242.0</v>
       </c>
       <c r="E28" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="G28" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="47">
-        <v>92.91</v>
-      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B29" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="57">
-        <v>144299.27</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>24</v>
-      </c>
+        <v>9.0</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="57">
-        <v>24953.6</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="58" t="str">
+        <f>SUM(D21:D29)</f>
+        <v>1099483.6</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="57">
+        <v>545717.3</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="47">
+        <v>92.91</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="57">
+        <v>144299.27</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="57">
+        <v>24953.6</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="44">
         <v>4.0</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D34" s="57">
         <v>167875.0</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E34" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="18"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="35" t="s">
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="18"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="58" t="str">
-        <f>SUM(D28:D31)</f>
+      <c r="D35" s="58" t="str">
+        <f>SUM(D31:D34)</f>
         <v>882845.17</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="36"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="38" t="str">
-        <f>(D9+D18+D27+D32)</f>
-        <v>882845.17</v>
-      </c>
-      <c r="E34" s="36"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="36"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36">
       <c r="A36" s="8"/>
@@ -31488,8 +31976,13 @@
     <row r="37">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="38" t="str">
+        <f>(D11+D20+D30+D35)</f>
+        <v>14372153.35</v>
+      </c>
       <c r="E37" s="36"/>
     </row>
     <row r="38">
@@ -38289,21 +38782,42 @@
       <c r="D1008" s="8"/>
       <c r="E1008" s="36"/>
     </row>
+    <row r="1009">
+      <c r="A1009" s="8"/>
+      <c r="B1009" s="8"/>
+      <c r="C1009" s="4"/>
+      <c r="D1009" s="8"/>
+      <c r="E1009" s="36"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="8"/>
+      <c r="B1010" s="8"/>
+      <c r="C1010" s="4"/>
+      <c r="D1010" s="8"/>
+      <c r="E1010" s="36"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="8"/>
+      <c r="B1011" s="8"/>
+      <c r="C1011" s="4"/>
+      <c r="D1011" s="8"/>
+      <c r="E1011" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="F19:F27"/>
-    <mergeCell ref="F10:F18"/>
-    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="G3:G11"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="G19:G27"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="H3:H9"/>
-    <mergeCell ref="H10:H18"/>
-    <mergeCell ref="H19:H27"/>
-    <mergeCell ref="G10:G18"/>
+    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="H12:H20"/>
+    <mergeCell ref="H21:H30"/>
+    <mergeCell ref="G21:G30"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="F21:F30"/>
+    <mergeCell ref="F12:F20"/>
+    <mergeCell ref="G12:G20"/>
+    <mergeCell ref="H3:H11"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="H31:H35"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -38327,7 +38841,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -38388,14 +38902,20 @@
       <c r="B3" s="44">
         <v>1.0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="57">
+        <v>111787.56</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F3" s="47">
         <v>0.0</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="H3" s="47">
         <v>68.18</v>
@@ -38408,9 +38928,15 @@
       <c r="B4" s="44">
         <v>2.0</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="57">
+        <v>111899.52</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -38422,114 +38948,150 @@
       <c r="B5" s="44">
         <v>3.0</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="57">
+        <v>141062.1</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="9"/>
       <c r="B6" s="44">
         <v>4.0</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="57">
+        <v>141261.34</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
     </row>
     <row r="7">
-      <c r="A7" s="18"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="58" t="str">
-        <f>SUM(D3:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="44">
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="57">
+        <v>119866.68</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A8" s="9"/>
       <c r="B8" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="47">
-        <v>83.11</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="57">
+        <v>132873.67</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B9" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="46"/>
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="57">
+        <v>126805.74</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="58" t="str">
+        <f>SUM(D3:D9)</f>
+        <v>885556.61</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="44">
-        <v>4.0</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="57">
+        <v>131139.0</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="47">
+        <v>83.11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="46"/>
+        <v>2.0</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="57">
+        <v>131306.0</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -38539,11 +39101,17 @@
         <v>21</v>
       </c>
       <c r="B13" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="46"/>
+        <v>3.0</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="57">
+        <v>136401.0</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>35</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -38553,11 +39121,17 @@
         <v>21</v>
       </c>
       <c r="B14" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="46"/>
+        <v>4.0</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="57">
+        <v>138417.0</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>35</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -38567,11 +39141,17 @@
         <v>21</v>
       </c>
       <c r="B15" s="44">
-        <v>8.0</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="46"/>
+        <v>5.0</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="57">
+        <v>131782.0</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -38581,11 +39161,17 @@
         <v>21</v>
       </c>
       <c r="B16" s="44">
-        <v>9.0</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="46"/>
+        <v>6.0</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="57">
+        <v>150948.0</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -38595,11 +39181,17 @@
         <v>21</v>
       </c>
       <c r="B17" s="44">
-        <v>10.0</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="46"/>
+        <v>7.0</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="57">
+        <v>152944.0</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -38609,56 +39201,67 @@
         <v>21</v>
       </c>
       <c r="B18" s="44">
-        <v>11.0</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="46"/>
+        <v>8.0</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="57">
+        <v>150928.0</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
     <row r="19">
-      <c r="A19" s="18"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="58" t="str">
-        <f>SUM(D8:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="A19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="44">
+        <v>9.0</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="57">
+        <v>152925.0</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B20" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="47">
-        <v>86.2</v>
-      </c>
+        <v>10.0</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="57">
+        <v>130977.0</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B21" s="44">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="57"/>
@@ -38668,43 +39271,62 @@
       <c r="H21" s="15"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="58" t="str">
+        <f>SUM(D11:D21)</f>
+        <v>1407767</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="44">
-        <v>4.0</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="57">
+        <v>194435.3</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="47">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="46"/>
+        <v>2.0</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="57">
+        <v>197338.4</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -38714,11 +39336,17 @@
         <v>27</v>
       </c>
       <c r="B25" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="46"/>
+        <v>3.0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="57">
+        <v>197325.2</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -38728,11 +39356,17 @@
         <v>27</v>
       </c>
       <c r="B26" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="46"/>
+        <v>4.0</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="57">
+        <v>114792.3</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>30</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -38742,11 +39376,17 @@
         <v>27</v>
       </c>
       <c r="B27" s="44">
-        <v>8.0</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="46"/>
+        <v>5.0</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="57">
+        <v>183836.0</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -38756,11 +39396,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="44">
-        <v>9.0</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="46"/>
+        <v>6.0</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="57">
+        <v>183836.0</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -38770,59 +39416,68 @@
         <v>27</v>
       </c>
       <c r="B29" s="44">
-        <v>10.0</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="46"/>
+        <v>7.0</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="57">
+        <v>160379.5</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>17</v>
+      </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
     </row>
     <row r="30">
-      <c r="A30" s="18"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="58" t="str">
-        <f>SUM(D20:D29)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="A30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="44">
+        <v>8.0</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="57">
+        <v>122267.6</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B31" s="44">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D31" s="57">
-        <v>394838.44</v>
+        <v>124124.1</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="47">
-        <v>47.24</v>
-      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32">
-      <c r="A32" s="10"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="44">
+        <v>10.0</v>
+      </c>
       <c r="C32" s="12"/>
       <c r="D32" s="57"/>
       <c r="E32" s="46"/>
@@ -38831,65 +39486,90 @@
       <c r="H32" s="15"/>
     </row>
     <row r="33">
-      <c r="A33" s="10"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="58" t="str">
+        <f>SUM(D23:D32)</f>
+        <v>1478334.4</v>
+      </c>
+      <c r="E33" s="59"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34">
-      <c r="A34" s="10"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
+      <c r="A34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="57">
+        <v>394838.44</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="47">
+        <v>47.24</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="18"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="35" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="10"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="10"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="18"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="58" t="str">
-        <f>SUM(D31:D34)</f>
+      <c r="D38" s="58" t="str">
+        <f>SUM(D34:D37)</f>
         <v>394838.44</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="36"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="38" t="str">
-        <f>(D7+D19+D30+D35)</f>
-        <v>394838.44</v>
-      </c>
-      <c r="E37" s="36"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="36"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
     </row>
     <row r="39">
       <c r="A39" s="8"/>
@@ -38901,8 +39581,13 @@
     <row r="40">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="38" t="str">
+        <f>(D10+D22+D33+D38)</f>
+        <v>4166496.45</v>
+      </c>
       <c r="E40" s="36"/>
     </row>
     <row r="41">
@@ -45702,21 +46387,42 @@
       <c r="D1011" s="8"/>
       <c r="E1011" s="36"/>
     </row>
+    <row r="1012">
+      <c r="A1012" s="8"/>
+      <c r="B1012" s="8"/>
+      <c r="C1012" s="4"/>
+      <c r="D1012" s="8"/>
+      <c r="E1012" s="36"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="8"/>
+      <c r="B1013" s="8"/>
+      <c r="C1013" s="4"/>
+      <c r="D1013" s="8"/>
+      <c r="E1013" s="36"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="8"/>
+      <c r="B1014" s="8"/>
+      <c r="C1014" s="4"/>
+      <c r="D1014" s="8"/>
+      <c r="E1014" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G23:G33"/>
+    <mergeCell ref="F23:F33"/>
+    <mergeCell ref="G11:G22"/>
+    <mergeCell ref="H11:H22"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="F11:F22"/>
+    <mergeCell ref="G3:G10"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G20:G30"/>
-    <mergeCell ref="F8:F19"/>
-    <mergeCell ref="G8:G19"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="H20:H30"/>
-    <mergeCell ref="H8:H19"/>
-    <mergeCell ref="F20:F30"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H23:H33"/>
+    <mergeCell ref="H3:H10"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -45740,7 +46446,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -45801,14 +46507,20 @@
       <c r="B3" s="44">
         <v>1.0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="57">
+        <v>123339.33</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="47">
         <v>1.0</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="H3" s="47">
         <v>31.81</v>
@@ -45821,9 +46533,15 @@
       <c r="B4" s="44">
         <v>2.0</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="57">
+        <v>108589.23</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>116</v>
+      </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -45835,9 +46553,15 @@
       <c r="B5" s="44">
         <v>3.0</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="57">
+        <v>114968.83</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>116</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -45849,9 +46573,15 @@
       <c r="B6" s="44">
         <v>4.0</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="57">
+        <v>127282.56</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -45863,128 +46593,166 @@
       <c r="B7" s="44">
         <v>5.0</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="57">
+        <v>118740.32</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="9"/>
       <c r="B8" s="44">
         <v>6.0</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="46"/>
+      <c r="C8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="57">
+        <v>115262.15</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9">
-      <c r="A9" s="18"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="58" t="str">
-        <f>SUM(D3:D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="44">
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="57">
+        <v>115216.01</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="9"/>
       <c r="B10" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="47">
-        <v>44.15</v>
-      </c>
+        <v>8.0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="57">
+        <v>115308.28</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A11" s="9"/>
       <c r="B11" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="46"/>
+        <v>9.0</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="57">
+        <v>137113.84</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>24</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B12" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="46"/>
+        <v>6.0</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="57">
+        <v>142340.67</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="44">
-        <v>4.0</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="58" t="str">
+        <f>SUM(D3:D7)</f>
+        <v>592920.27</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="57">
+        <v>106103.0</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="47">
+        <v>44.15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="46"/>
+        <v>2.0</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="57">
+        <v>140213.0</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -45994,11 +46762,17 @@
         <v>21</v>
       </c>
       <c r="B16" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="46"/>
+        <v>3.0</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="57">
+        <v>154741.0</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -46008,11 +46782,17 @@
         <v>21</v>
       </c>
       <c r="B17" s="44">
-        <v>8.0</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="46"/>
+        <v>4.0</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="57">
+        <v>154741.0</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -46022,11 +46802,17 @@
         <v>21</v>
       </c>
       <c r="B18" s="44">
-        <v>9.0</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="46"/>
+        <v>5.0</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="57">
+        <v>198152.0</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>24</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -46036,11 +46822,17 @@
         <v>21</v>
       </c>
       <c r="B19" s="44">
-        <v>10.0</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="46"/>
+        <v>6.0</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="57">
+        <v>151934.0</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>24</v>
+      </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -46050,11 +46842,17 @@
         <v>21</v>
       </c>
       <c r="B20" s="44">
-        <v>11.0</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="46"/>
+        <v>7.0</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="57">
+        <v>127083.0</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>26</v>
+      </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -46064,11 +46862,17 @@
         <v>21</v>
       </c>
       <c r="B21" s="44">
-        <v>12.0</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="46"/>
+        <v>8.0</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="57">
+        <v>119551.0</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>26</v>
+      </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -46078,116 +46882,158 @@
         <v>21</v>
       </c>
       <c r="B22" s="44">
-        <v>13.0</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="46"/>
+        <v>9.0</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="57">
+        <v>119844.0</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
     <row r="23">
-      <c r="A23" s="18"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="58" t="str">
-        <f>SUM(D10:D22)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="A23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="44">
+        <v>10.0</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="57">
+        <v>119612.0</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B24" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" s="47">
-        <v>33.62</v>
-      </c>
+        <v>11.0</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="57">
+        <v>114764.0</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B25" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="46"/>
+        <v>12.0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="57">
+        <v>187859.0</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B26" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="46"/>
+        <v>13.0</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="57">
+        <v>141001.0</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>24</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="44">
-        <v>4.0</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="58" t="str">
+        <f>SUM(D14:D26)</f>
+        <v>1835598</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="57">
+        <v>116551.5</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="47">
+        <v>33.62</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="46"/>
+        <v>2.0</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="57">
+        <v>116983.7</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>102</v>
+      </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -46197,11 +47043,17 @@
         <v>27</v>
       </c>
       <c r="B30" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="46"/>
+        <v>3.0</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="57">
+        <v>115180.6</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>102</v>
+      </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -46211,11 +47063,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="44">
-        <v>8.0</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="46"/>
+        <v>4.0</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="57">
+        <v>114359.2</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -46225,11 +47083,17 @@
         <v>27</v>
       </c>
       <c r="B32" s="44">
-        <v>9.0</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="46"/>
+        <v>5.0</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="57">
+        <v>135884.0</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -46239,11 +47103,17 @@
         <v>27</v>
       </c>
       <c r="B33" s="44">
-        <v>10.0</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="46"/>
+        <v>6.0</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="57">
+        <v>135947.5</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>17</v>
+      </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -46253,11 +47123,17 @@
         <v>27</v>
       </c>
       <c r="B34" s="44">
-        <v>11.0</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="46"/>
+        <v>7.0</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="57">
+        <v>119187.1</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>17</v>
+      </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -46267,11 +47143,17 @@
         <v>27</v>
       </c>
       <c r="B35" s="44">
-        <v>12.0</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="46"/>
+        <v>8.0</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="57">
+        <v>118692.7</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>17</v>
+      </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -46281,79 +47163,88 @@
         <v>27</v>
       </c>
       <c r="B36" s="44">
-        <v>13.0</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="46"/>
+        <v>9.0</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="57">
+        <v>165667.1</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>124</v>
+      </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
     </row>
     <row r="37">
-      <c r="A37" s="18"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="58" t="str">
-        <f>SUM(D24:D36)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="A37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="44">
+        <v>10.0</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="57">
+        <v>194294.9</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B38" s="44">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D38" s="57">
-        <v>679102.2</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" s="47">
-        <v>3.0</v>
-      </c>
-      <c r="G38" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="47">
-        <v>95.27</v>
-      </c>
+        <v>197435.1</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B39" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="C39" s="70" t="s">
-        <v>31</v>
+        <v>12.0</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="D39" s="57">
-        <v>402340.84</v>
+        <v>199077.8</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
     </row>
     <row r="40">
-      <c r="A40" s="10"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="44">
+        <v>13.0</v>
+      </c>
       <c r="C40" s="12"/>
       <c r="D40" s="57"/>
       <c r="E40" s="46"/>
@@ -46362,68 +47253,111 @@
       <c r="H40" s="15"/>
     </row>
     <row r="41">
-      <c r="A41" s="10"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="58" t="str">
+        <f>SUM(D28:D40)</f>
+        <v>1729261.2</v>
+      </c>
+      <c r="E41" s="59"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
     </row>
     <row r="42">
-      <c r="A42" s="18"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="35" t="s">
+      <c r="A42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="57">
+        <v>679102.2</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="47">
+        <v>3.0</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="47">
+        <v>95.27</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="57">
+        <v>402340.84</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="10"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="10"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="18"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="58" t="str">
-        <f>SUM(D38:D41)</f>
+      <c r="D46" s="58" t="str">
+        <f>SUM(D42:D45)</f>
         <v>1081443.04</v>
       </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="38" t="str">
-        <f>(D9+D23+D37+D42)</f>
-        <v>1081443.04</v>
-      </c>
-      <c r="E43" s="36"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="36"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="36"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="36"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
     </row>
     <row r="47">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="38" t="str">
+        <f>(D13+D27+D41+D46)</f>
+        <v>5239222.51</v>
+      </c>
       <c r="E47" s="36"/>
     </row>
     <row r="48">
@@ -53216,21 +54150,49 @@
       <c r="D1017" s="8"/>
       <c r="E1017" s="36"/>
     </row>
+    <row r="1018">
+      <c r="A1018" s="8"/>
+      <c r="B1018" s="8"/>
+      <c r="C1018" s="4"/>
+      <c r="D1018" s="8"/>
+      <c r="E1018" s="36"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="8"/>
+      <c r="B1019" s="8"/>
+      <c r="C1019" s="4"/>
+      <c r="D1019" s="8"/>
+      <c r="E1019" s="36"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="8"/>
+      <c r="B1020" s="8"/>
+      <c r="C1020" s="4"/>
+      <c r="D1020" s="8"/>
+      <c r="E1020" s="36"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="8"/>
+      <c r="B1021" s="8"/>
+      <c r="C1021" s="4"/>
+      <c r="D1021" s="8"/>
+      <c r="E1021" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G10:G23"/>
-    <mergeCell ref="F10:F23"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="F24:F37"/>
-    <mergeCell ref="G24:G37"/>
-    <mergeCell ref="H24:H37"/>
-    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="G3:G13"/>
+    <mergeCell ref="F3:F13"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H10:H23"/>
-    <mergeCell ref="H3:H9"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="G14:G27"/>
+    <mergeCell ref="F14:F27"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="F28:F41"/>
+    <mergeCell ref="G28:G41"/>
+    <mergeCell ref="H28:H41"/>
+    <mergeCell ref="H14:H27"/>
+    <mergeCell ref="H3:H13"/>
+    <mergeCell ref="H42:H46"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -53251,7 +54213,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -53312,9 +54274,15 @@
       <c r="B3" s="44">
         <v>1.0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="57">
+        <v>133173.45</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="47">
         <v>15.0</v>
       </c>
@@ -53332,9 +54300,15 @@
       <c r="B4" s="44">
         <v>2.0</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="57">
+        <v>147069.4</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -53346,9 +54320,15 @@
       <c r="B5" s="44">
         <v>3.0</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="57">
+        <v>113102.47</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -53360,128 +54340,174 @@
       <c r="B6" s="44">
         <v>4.0</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="57">
+        <v>113029.16</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
     </row>
     <row r="7">
-      <c r="A7" s="18"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="58" t="str">
-        <f>SUM(D3:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="44">
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="57">
+        <v>113228.16</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B8" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47">
-        <v>27.0</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="47">
-        <v>90.9</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="57">
+        <v>62487.02</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B9" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="46"/>
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="57">
+        <v>142480.33</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="9"/>
       <c r="B10" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="46"/>
+        <v>8.0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="57">
+        <v>145114.06</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B11" s="44">
         <v>4.0</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="46"/>
+      <c r="C11" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="57">
+        <v>79510.99</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>19</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="58" t="str">
+        <f>SUM(D3:D11)</f>
+        <v>1049195.04</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="57">
+        <v>139626.0</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="47">
+        <v>27.0</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="47">
+        <v>90.9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="46"/>
+        <v>2.0</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="57">
+        <v>115409.0</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>102</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -53491,11 +54517,17 @@
         <v>21</v>
       </c>
       <c r="B15" s="44">
-        <v>8.0</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="46"/>
+        <v>3.0</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="57">
+        <v>77452.7</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>124</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -53505,11 +54537,17 @@
         <v>21</v>
       </c>
       <c r="B16" s="44">
-        <v>9.0</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="46"/>
+        <v>4.0</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="57">
+        <v>139626.0</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -53519,11 +54557,17 @@
         <v>21</v>
       </c>
       <c r="B17" s="44">
-        <v>10.0</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="46"/>
+        <v>5.0</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="57">
+        <v>127779.0</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>102</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -53533,130 +54577,178 @@
         <v>21</v>
       </c>
       <c r="B18" s="44">
-        <v>11.0</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="46"/>
+        <v>6.0</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="57">
+        <v>187859.0</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
     <row r="19">
-      <c r="A19" s="18"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="58" t="str">
-        <f>SUM(D8:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="A19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="44">
+        <v>7.0</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="57">
+        <v>187859.0</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B20" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47">
-        <v>7.0</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="47">
-        <v>92.24</v>
-      </c>
+        <v>8.0</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="57">
+        <v>187459.0</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B21" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="46"/>
+        <v>9.0</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="57">
+        <v>187817.0</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B22" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="46"/>
+        <v>10.0</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="57">
+        <v>65910.0</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B23" s="44">
-        <v>4.0</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="46"/>
+        <v>11.0</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="57">
+        <v>79681.0</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="58" t="str">
+        <f>SUM(D13:D23)</f>
+        <v>1496477.7</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="57">
+        <v>175000.0</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="47">
+        <v>7.0</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="47">
+        <v>92.24</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="46"/>
+        <v>2.0</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="57">
+        <v>124895.6</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -53666,11 +54758,17 @@
         <v>27</v>
       </c>
       <c r="B27" s="44">
-        <v>8.0</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="46"/>
+        <v>3.0</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="57">
+        <v>99515.39</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -53680,11 +54778,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="44">
-        <v>9.0</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="46"/>
+        <v>4.0</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="57">
+        <v>199442.9</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -53694,11 +54798,17 @@
         <v>27</v>
       </c>
       <c r="B29" s="44">
-        <v>10.0</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="46"/>
+        <v>5.0</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="57">
+        <v>191105.7</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -53708,11 +54818,17 @@
         <v>27</v>
       </c>
       <c r="B30" s="44">
-        <v>11.0</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="46"/>
+        <v>6.0</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="57">
+        <v>57105.0</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -53722,11 +54838,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="44">
-        <v>12.0</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="46"/>
+        <v>7.0</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="57">
+        <v>190377.8</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>24</v>
+      </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -53736,68 +54858,73 @@
         <v>27</v>
       </c>
       <c r="B32" s="44">
-        <v>13.0</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="46"/>
+        <v>8.0</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="57">
+        <v>135884.0</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
     </row>
     <row r="33">
-      <c r="A33" s="18"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="58" t="str">
-        <f>SUM(D20:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="A33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="44">
+        <v>9.0</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="57">
+        <v>68733.96</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B34" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>100</v>
+        <v>10.0</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="D34" s="57">
-        <v>617069.65</v>
+        <v>69501.73</v>
       </c>
       <c r="E34" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="47">
-        <v>9.0</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="47">
-        <v>93.7</v>
-      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B35" s="44">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="57">
-        <v>143527.39</v>
+        <v>146844.9</v>
       </c>
       <c r="E35" s="46" t="s">
         <v>10</v>
@@ -53808,19 +54935,19 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B36" s="44">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D36" s="57">
-        <v>197003.86</v>
+        <v>136654.3</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -53828,19 +54955,19 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B37" s="44">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="D37" s="57">
-        <v>143094.1</v>
+        <v>197725.7</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -53853,8 +54980,8 @@
         <v>20</v>
       </c>
       <c r="D38" s="58" t="str">
-        <f>SUM(D34:D37)</f>
-        <v>1100695</v>
+        <f>SUM(D25:D37)</f>
+        <v>1792786.98</v>
       </c>
       <c r="E38" s="59"/>
       <c r="F38" s="23"/>
@@ -53862,44 +54989,105 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="36"/>
+      <c r="A39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="57">
+        <v>617069.65</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="47">
+        <v>9.0</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="47">
+        <v>93.7</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="38" t="str">
-        <f>(D7+D19+D33+D38)</f>
+      <c r="A40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="57">
+        <v>143527.39</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="57">
+        <v>197003.86</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="44">
+        <v>4.0</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="57">
+        <v>143094.1</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="18"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="58" t="str">
+        <f>SUM(D39:D42)</f>
         <v>1100695</v>
       </c>
-      <c r="E40" s="36"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="36"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="36"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="36"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
     </row>
     <row r="44">
       <c r="A44" s="8"/>
@@ -53911,8 +55099,13 @@
     <row r="45">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="38" t="str">
+        <f>(D12+D24+D38+D43)</f>
+        <v>5439154.72</v>
+      </c>
       <c r="E45" s="36"/>
     </row>
     <row r="46">
@@ -60698,21 +61891,56 @@
       <c r="D1014" s="8"/>
       <c r="E1014" s="36"/>
     </row>
+    <row r="1015">
+      <c r="A1015" s="8"/>
+      <c r="B1015" s="8"/>
+      <c r="C1015" s="4"/>
+      <c r="D1015" s="8"/>
+      <c r="E1015" s="36"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="8"/>
+      <c r="B1016" s="8"/>
+      <c r="C1016" s="4"/>
+      <c r="D1016" s="8"/>
+      <c r="E1016" s="36"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="8"/>
+      <c r="B1017" s="8"/>
+      <c r="C1017" s="4"/>
+      <c r="D1017" s="8"/>
+      <c r="E1017" s="36"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="8"/>
+      <c r="B1018" s="8"/>
+      <c r="C1018" s="4"/>
+      <c r="D1018" s="8"/>
+      <c r="E1018" s="36"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="8"/>
+      <c r="B1019" s="8"/>
+      <c r="C1019" s="4"/>
+      <c r="D1019" s="8"/>
+      <c r="E1019" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="H8:H19"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="G25:G38"/>
+    <mergeCell ref="F25:F38"/>
+    <mergeCell ref="H13:H24"/>
+    <mergeCell ref="H25:H38"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="H3:H12"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="F8:F19"/>
-    <mergeCell ref="G20:G33"/>
-    <mergeCell ref="F20:F33"/>
-    <mergeCell ref="H20:H33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="G8:G19"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="F13:F24"/>
+    <mergeCell ref="G13:G24"/>
+    <mergeCell ref="F39:F43"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
